--- a/msd.xlsx
+++ b/msd.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Salesforce_MSDleadFun" sheetId="2" r:id="rId2"/>
+    <x:sheet name="MSDynamics_dyrollup" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -55,64 +55,52 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+    <x:t>New Rollup Query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to MSDynamics, from the browser with correct credentials</x:t>
   </x:si>
   <x:si>
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on the Lead tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Lead Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Company </x:t>
+    <x:t>Click on the Rollup Query tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Rollup Query Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Entity Type </x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Company field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Company field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field First Name, Last Name </x:t>
+    <x:t>Input valid value in the  Entity Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Entity Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Name </x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  First Name, Last Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the First Name, Last Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Lead Status </x:t>
+    <x:t>Input valid value in the  Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Name field.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Lead Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Lead Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Lead with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Lead is created</x:t>
+    <x:t>Click on Save button to save Rollup Query with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Rollup Query is created</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2</x:t>
@@ -121,19 +109,19 @@
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Lead tab,  and select a Lead </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Lead name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Lead Details</x:t>
+    <x:t>View Rollup Query</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Rollup Query tab,  and select a Rollup Query </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Rollup Query Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Rollup Query name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Rollup Query Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -142,16 +130,16 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Lead tab,  and click on existing Lead to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Lead Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Lead is edited</x:t>
+    <x:t>Edit Rollup Query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Rollup Query tab,  and click on existing Rollup Query to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Rollup Query Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Rollup Query is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
@@ -160,22 +148,22 @@
     <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Delete Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Lead tab,  and select the existing  Lead to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Lead is deleted</x:t>
+    <x:t>Delete Rollup Query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Rollup Query tab,  and select the existing  Rollup Query to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Rollup Query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Rollup Query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Rollup Query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Rollup Query is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -259,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K16" totalsRowShown="0">
-  <x:autoFilter ref="A1:K16"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0">
+  <x:autoFilter ref="A1:K14"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -566,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K16"/>
+  <x:dimension ref="A1:K14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -574,12 +562,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="48.840625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="71.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="38.700625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="70.700624999999988" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="97.980624999999989" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -694,109 +682,109 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
       <x:c r="K5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
+      <x:c r="A6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
       <x:c r="K6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
       <x:c r="K7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
+      <x:c r="A8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -808,16 +796,16 @@
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -828,38 +816,42 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
       <x:c r="K11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -872,82 +864,36 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
       <x:c r="K13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="A14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:11">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-      <x:c r="K15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:11">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-      <x:c r="K16" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/msd.xlsx
+++ b/msd.xlsx
@@ -7,6 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="MSDynamics_dyrollup" sheetId="2" r:id="rId2"/>
+    <x:sheet name="MSDynamics_dyngoalM" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -164,6 +165,87 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Rollup Query is deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Goal Metric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Goal Metric tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Goal Metric Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Amount Data Type </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Amount Data Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Amount Data Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Metric Type </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Metric Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Metric Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Goal Metric with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Goal Metric is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Goal Metric</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Goal Metric tab,  and select a Goal Metric </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Goal Metric Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Goal Metric name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Goal Metric Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Goal Metric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Goal Metric tab,  and click on existing Goal Metric to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Goal Metric Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Goal Metric is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Goal Metric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Goal Metric tab,  and select the existing  Goal Metric to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Goal Metric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Goal Metric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Goal Metric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Goal Metric is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -249,6 +331,26 @@
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0">
   <x:autoFilter ref="A1:K14"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:K16" totalsRowShown="0">
+  <x:autoFilter ref="A1:K16"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -901,7 +1003,406 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId6"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K16"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="71.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="45.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="67.840624999999989" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="96.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId7"/>
   </x:tableParts>
 </x:worksheet>
 </file>